--- a/medicine/Enfance/Jacques_Godbout/Jacques_Godbout.xlsx
+++ b/medicine/Enfance/Jacques_Godbout/Jacques_Godbout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Godbout (27 novembre 1933 à Montréal, Québec -), est un romancier, poète, essayiste, dramaturge, auteur pour enfants et cinéaste québécois.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études classiques chez les Jésuites au Collège Jean-de-Brébeuf, il obtient une maîtrise en lettres de l'Université de Montréal en 1954 avant d'enseigner la philosophie et le français à l'University college d'Addis Abeba, en Éthiopie, jusqu'en 1957.
 De retour au Canada en 1958, il devient publicitaire avant d'entrer à l'Office national du film du Canada en tant que cinéaste-scénariste. Il réalisera plusieurs films, dont 4 longs métrages de fiction et plusieurs documentaires. En 1959 il est l'un des fondateurs de la revue littéraire Liberté.
 Écrivain prolifique publié à Paris, il travaille occasionnellement à Radio-Canada comme animateur de radio. En tant que journaliste, il collabore à différents magazines et journaux : Maclean's, l'Actualité, Les Lettres françaises, Cité libre, Vie des Arts et Le Devoir.
 En 1962 il participe activement à la création du Mouvement laïque de langue française (MLF) dont il sera l'ultime président en 1967. Cette même année il rédige le scénario du pavillon thématique de l'Exposition universelle de Montréal, L'homme dans la Cité,
 En 1968, il collabore à la fondation du Mouvement Souveraineté-Association, qui devait ultérieurement donner naissance au Parti québécois. Il est l'un des fondateurs et le premier président de l'Union des écrivaines et des écrivains québécois, le 21 mars 1977.
-Il publie différents essais pendant que se déroule la Révolution tranquille, rédige dix romans, un journal, un roman jeunesse et trois albums pour enfants. Le roman Salut Galarneau ! (1967), en particulier, condense exemplairement une série de thématiques d'autonomisation ou d'émancipation du sujet, où l'on retrouve un écho différé du manifeste Refus global de 1948. De façon générale, ses romans explorent « les possibilités de l'identité québécoise »[1]. 
+Il publie différents essais pendant que se déroule la Révolution tranquille, rédige dix romans, un journal, un roman jeunesse et trois albums pour enfants. Le roman Salut Galarneau ! (1967), en particulier, condense exemplairement une série de thématiques d'autonomisation ou d'émancipation du sujet, où l'on retrouve un écho différé du manifeste Refus global de 1948. De façon générale, ses romans explorent « les possibilités de l'identité québécoise ». 
 Depuis plus de 40 ans Godbout tient une chronique littéraire dans le magazine L'Actualité. Il est également membre du comité éditorial des Éditions du Boréal depuis 1985.
-En septembre 2006, il a suscité une vive controverse sur l’avenir démographique du Québec à la suite d’une entrevue accordée à Michel Vastel dans le magazine L’Actualité[2]. Reprenant l’essentiel de ses propos dans Le Devoir du 23 septembre 2006[3], Godbout a reçu l’appui du démographe Michel Paillé[4]. Dans les inquiétudes de Godbout, Paillé a vu «des fondements démographiques»[5].
+En septembre 2006, il a suscité une vive controverse sur l’avenir démographique du Québec à la suite d’une entrevue accordée à Michel Vastel dans le magazine L’Actualité. Reprenant l’essentiel de ses propos dans Le Devoir du 23 septembre 2006, Godbout a reçu l’appui du démographe Michel Paillé. Dans les inquiétudes de Godbout, Paillé a vu «des fondements démographiques».
 Jacques Godbout a été invité comme conférencier et professeur à l'Université Carleton (Ottawa), à l'Université Meiji de Tokyo, à l’Université Berkeley de Californie et dans son Alma mater, l'Université de Montréal.
 </t>
         </is>
@@ -552,15 +566,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-Carton-pâte, Pierre Seghers, Paris 1956, épuisé
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carton-pâte, Pierre Seghers, Paris 1956, épuisé
 Les Pavés secs, Beauchemin, Montréal 1958, épuisé
 La chair est un commencement, Écrits du Canada français, no 5. 1959
 C'est la chaude loi des hommes, L'Hexagone, Montréal, 1960 épuisé
 La Grande Muraille de Chine, avec John Robert Colombo, Le Jour, 1969, épuisé
-Souvenirs Shop, poèmes 1956-1980, collection rétrospective, L'Hexagone, 1984
-Romans
-1962 : L'Aquarium. Seuil / Boréal compact
+Souvenirs Shop, poèmes 1956-1980, collection rétrospective, L'Hexagone, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1962 : L'Aquarium. Seuil / Boréal compact
 1965 : Le Couteau sur la table, / Seuil (traduit en anglais sous le titre The Knife on the Table), prix Henri-Dumarest de l’Académie française
 1967 : Salut Galarneau !, Seuil / Points (traduit en anglais sous le titre Hail Galarneau!)
 1972 : D'amour, P.Q. Seuil / Points
@@ -569,9 +622,43 @@
 1986 : Une histoire américaine. Seuil  / Points
 1993 : Le Temps des Galarneau. Seuil / Boréal compact
 1999 : Opération Rimbaud. Seuil / Boréal compact
-2006 : La Concierge du Panthéon. Seuil
-Essais et proses
-1975 : Le Réformiste : textes tranquilles, Quinze / Boréal
+2006 : La Concierge du Panthéon. Seuil</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais et proses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1975 : Le Réformiste : textes tranquilles, Quinze / Boréal
 1980 : De Superman à Showman in Les journalistes, Québec Amérique
 1984 : Le Murmure marchand, Boréal
 1988 : Abécédaire Québécois (sous le pseudonyme Jean Dupays), Boréal
@@ -586,42 +673,119 @@
 2008 : Autos biographie, illustrations Rémy Simard, Les 400 coups / Somme toute 2014
 2010 : Lire, c’est la vie, Boréal
 2014 : Le Tour du jardin : Entretiens avec Mathieu Bock-Côté sur les livres, la politique, la culture, la religion, le Québec et la saisine, Boréal
-2018 : De l'Avantage d'être né, autobiographie, 285 pages, Éditions du Boréal
-Littérature d'enfance et de jeunesse
-Roman jeunesse
-1997 : Une leçon de chasse, (roman jeunesse), Boréal
-Albums illustrés pour enfants
-2003 : Mes petites fesses (illustrations Pierre Pratt) Les 400 coups
+2018 : De l'Avantage d'être né, autobiographie, 285 pages, Éditions du Boréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Roman jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1997 : Une leçon de chasse, (roman jeunesse), Boréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Albums illustrés pour enfants</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2003 : Mes petites fesses (illustrations Pierre Pratt) Les 400 coups
 2006 : Bizarres, les baisers ! (illustrations Pierre Pratt) Les 400 coups
 2007 : Fanfaron (illustrations Fil et Julie) Les 400 coups</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jacques_Godbout</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La majorité des films ont été produits par l'Office national du film du Canada.
 1961 : Les Dieux (court métrage documentaire)
@@ -669,31 +833,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Jacques_Godbout</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Godbout</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Honneurs divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1962 - Prix littéraire France-Québec, l'Aquarium
 1965 - Prix Henri Dumarest, Le couteau sur la table
@@ -707,7 +873,7 @@
 1994 - Grand prix des lectrices de Elle Québec, Le Temps des Galarneau
 1998 - Chevalier de l'Ordre national du Québec
 2002 - Prix Condorcet (collectif MLF)
-2002 - Doctorat honorifique de l'Université d'Ottawa pour « souligner la contribution exceptionnelle de Jacques Godbout au rayonnement de la culture québécoise et canadienne »[6].
+2002 - Doctorat honorifique de l'Université d'Ottawa pour « souligner la contribution exceptionnelle de Jacques Godbout au rayonnement de la culture québécoise et canadienne ».
 2003 - Palmarès Communication-Jeunesse des livres préférés des jeunes
 2003 - Doctorat honorifique en Lettres de l'Université McGill
 2007 - Prix de l’Académie française Maurice Genevoix, La Concierge du Panthéon
